--- a/it-professional-2-zc0020/config.xlsx
+++ b/it-professional-2-zc0020/config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\it-professional-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\it-professional-2-zc0020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D7F5FB-248E-44A4-B09D-E104C423FAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC60567-374A-44C0-8593-318C4686BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,13 +123,13 @@
     <t>Toets (indien toets)</t>
   </si>
   <si>
-    <t>Patrick Dielens, Karen Verswijvel</t>
-  </si>
-  <si>
-    <t>patrick.dielens@thomasmore.be,karen.verswijvel@thomasmore.be</t>
-  </si>
-  <si>
-    <t>IT-professional 1</t>
+    <t>Pieter De Cleyn, Karen Verswijvel</t>
+  </si>
+  <si>
+    <t>pieter.decleyn@thomasmore.be,karen.verswijvel@thomasmore.be</t>
+  </si>
+  <si>
+    <t>IT-professional 2</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A7714292-7BA2-4415-B86C-1A77695027B3}" name="Tabel7" displayName="Tabel7" ref="A1:B5" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A7714292-7BA2-4415-B86C-1A77695027B3}" name="Tabel7" displayName="Tabel7" ref="A1:B6" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{562CF34D-D9D5-4021-B569-F90EC7496BBE}" name="Kolom1"/>
     <tableColumn id="2" xr3:uid="{E573BBDC-58D6-4565-897E-18DA68B3FAB8}" name="Kolom2"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>37594</v>
+        <v>37284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
